--- a/public/tmp/pivottotalwork.xlsx
+++ b/public/tmp/pivottotalwork.xlsx
@@ -53,37 +53,37 @@
     <t>พรชัย</t>
   </si>
   <si>
-    <t>February 2023</t>
-  </si>
-  <si>
-    <t>March 2023</t>
-  </si>
-  <si>
-    <t>April 2023</t>
-  </si>
-  <si>
-    <t>May 2023</t>
-  </si>
-  <si>
-    <t>June 2023</t>
-  </si>
-  <si>
-    <t>July 2023</t>
-  </si>
-  <si>
-    <t>August 2023</t>
-  </si>
-  <si>
-    <t>September 2023</t>
-  </si>
-  <si>
-    <t>October 2023</t>
-  </si>
-  <si>
-    <t>November 2023</t>
-  </si>
-  <si>
-    <t>December 2023</t>
+    <t>February 2024</t>
+  </si>
+  <si>
+    <t>March 2024</t>
+  </si>
+  <si>
+    <t>April 2024</t>
+  </si>
+  <si>
+    <t>May 2024</t>
+  </si>
+  <si>
+    <t>June 2024</t>
+  </si>
+  <si>
+    <t>July 2024</t>
+  </si>
+  <si>
+    <t>August 2024</t>
+  </si>
+  <si>
+    <t>September 2024</t>
+  </si>
+  <si>
+    <t>October 2024</t>
+  </si>
+  <si>
+    <t>November 2024</t>
+  </si>
+  <si>
+    <t>December 2024</t>
   </si>
 </sst>
 </file>
@@ -474,37 +474,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14888.52</v>
+        <v>23946.79</v>
       </c>
       <c r="C2">
-        <v>27379.32</v>
+        <v>38000.25</v>
       </c>
       <c r="D2">
-        <v>20299.34</v>
+        <v>29777.47</v>
       </c>
       <c r="E2">
-        <v>24819.5</v>
-      </c>
-      <c r="F2">
-        <v>18894.48</v>
-      </c>
-      <c r="G2">
-        <v>17005.28</v>
-      </c>
-      <c r="H2">
-        <v>23443.38</v>
-      </c>
-      <c r="I2">
-        <v>14601.94</v>
-      </c>
-      <c r="J2">
-        <v>19625.17</v>
-      </c>
-      <c r="K2">
-        <v>12895.24</v>
-      </c>
-      <c r="L2">
-        <v>21685.31</v>
+        <v>252.55</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -512,37 +491,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>17784.62</v>
+        <v>14247.06</v>
       </c>
       <c r="C3">
-        <v>26486.53</v>
+        <v>24577.94</v>
       </c>
       <c r="D3">
-        <v>16581.79</v>
+        <v>14503.15</v>
       </c>
       <c r="E3">
-        <v>20093.13</v>
-      </c>
-      <c r="F3">
-        <v>8094.83</v>
-      </c>
-      <c r="G3">
-        <v>12039.55</v>
-      </c>
-      <c r="H3">
-        <v>12567.48</v>
-      </c>
-      <c r="I3">
-        <v>10108.42</v>
-      </c>
-      <c r="J3">
-        <v>15225.9</v>
-      </c>
-      <c r="K3">
-        <v>13628.38</v>
-      </c>
-      <c r="L3">
-        <v>10805.9</v>
+        <v>112.6</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -550,37 +508,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10281.97</v>
+        <v>13158.1</v>
       </c>
       <c r="C4">
-        <v>23566.01</v>
+        <v>13837.31</v>
       </c>
       <c r="D4">
-        <v>11406.17</v>
+        <v>15091.78</v>
       </c>
       <c r="E4">
-        <v>15615.67</v>
-      </c>
-      <c r="F4">
-        <v>18032.0</v>
-      </c>
-      <c r="G4">
-        <v>18197.54</v>
-      </c>
-      <c r="H4">
-        <v>15005.81</v>
-      </c>
-      <c r="I4">
-        <v>9754.63</v>
-      </c>
-      <c r="J4">
-        <v>14183.76</v>
-      </c>
-      <c r="K4">
-        <v>11373.27</v>
-      </c>
-      <c r="L4">
-        <v>7228.7</v>
+        <v>71.4</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -588,37 +525,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>15483.38</v>
+        <v>14057.65</v>
       </c>
       <c r="C5">
-        <v>26759.96</v>
+        <v>21966.88</v>
       </c>
       <c r="D5">
-        <v>17852.75</v>
+        <v>18512.01</v>
       </c>
       <c r="E5">
-        <v>22028.09</v>
-      </c>
-      <c r="F5">
-        <v>18154.85</v>
-      </c>
-      <c r="G5">
-        <v>18936.99</v>
-      </c>
-      <c r="H5">
-        <v>16399.25</v>
-      </c>
-      <c r="I5">
-        <v>15049.73</v>
-      </c>
-      <c r="J5">
-        <v>19370.68</v>
-      </c>
-      <c r="K5">
-        <v>14895.0</v>
-      </c>
-      <c r="L5">
-        <v>12901.95</v>
+        <v>77.52</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -626,37 +542,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7110.97</v>
+        <v>10130.05</v>
       </c>
       <c r="C6">
-        <v>13190.21</v>
+        <v>13869.15</v>
       </c>
       <c r="D6">
-        <v>3473.74</v>
+        <v>12724.67</v>
       </c>
       <c r="E6">
-        <v>11728.51</v>
-      </c>
-      <c r="F6">
-        <v>11386.77</v>
-      </c>
-      <c r="G6">
-        <v>11848.99</v>
-      </c>
-      <c r="H6">
-        <v>10730.01</v>
-      </c>
-      <c r="I6">
-        <v>9848.51</v>
-      </c>
-      <c r="J6">
-        <v>12250.91</v>
-      </c>
-      <c r="K6">
-        <v>10428.3</v>
-      </c>
-      <c r="L6">
-        <v>8272.31</v>
+        <v>179.52</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -664,37 +559,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10747.36</v>
+        <v>9575.21</v>
       </c>
       <c r="C7">
-        <v>16978.55</v>
+        <v>15078.69</v>
       </c>
       <c r="D7">
-        <v>11228.34</v>
-      </c>
-      <c r="E7">
-        <v>14855.39</v>
-      </c>
-      <c r="F7">
-        <v>12170.18</v>
-      </c>
-      <c r="G7">
-        <v>12503.96</v>
-      </c>
-      <c r="H7">
-        <v>8293.18</v>
-      </c>
-      <c r="I7">
-        <v>10439.91</v>
-      </c>
-      <c r="J7">
-        <v>11610.79</v>
-      </c>
-      <c r="K7">
-        <v>10844.91</v>
-      </c>
-      <c r="L7">
-        <v>8955.84</v>
+        <v>14467.49</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -702,57 +573,60 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>11790.98</v>
+        <v>11771.54</v>
       </c>
       <c r="C8">
-        <v>17335.67</v>
+        <v>12832.38</v>
       </c>
       <c r="D8">
-        <v>9610.25</v>
-      </c>
-      <c r="E8">
-        <v>7288.09</v>
-      </c>
-      <c r="F8">
-        <v>14696.73</v>
-      </c>
-      <c r="G8">
-        <v>14390.56</v>
-      </c>
-      <c r="H8">
-        <v>14665.29</v>
-      </c>
-      <c r="I8">
-        <v>12058.61</v>
-      </c>
-      <c r="J8">
-        <v>14421.22</v>
-      </c>
-      <c r="K8">
-        <v>13035.09</v>
-      </c>
-      <c r="L8">
-        <v>10075.15</v>
+        <v>13581.91</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>1561.22</v>
+      </c>
+      <c r="C9">
+        <v>110.76</v>
+      </c>
+      <c r="D9">
+        <v>14076.96</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>1272.09</v>
+      </c>
+      <c r="C10">
+        <v>44.88</v>
+      </c>
+      <c r="D10">
+        <v>12767.23</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>423.02</v>
+      </c>
+      <c r="C11">
+        <v>11767.22</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>11</v>
+      </c>
+      <c r="C12">
+        <v>4006.43</v>
       </c>
     </row>
   </sheetData>

--- a/public/tmp/pivottotalwork.xlsx
+++ b/public/tmp/pivottotalwork.xlsx
@@ -53,37 +53,37 @@
     <t>พรชัย</t>
   </si>
   <si>
-    <t>February 2024</t>
-  </si>
-  <si>
-    <t>March 2024</t>
-  </si>
-  <si>
-    <t>April 2024</t>
-  </si>
-  <si>
-    <t>May 2024</t>
-  </si>
-  <si>
-    <t>June 2024</t>
-  </si>
-  <si>
-    <t>July 2024</t>
-  </si>
-  <si>
-    <t>August 2024</t>
-  </si>
-  <si>
-    <t>September 2024</t>
-  </si>
-  <si>
-    <t>October 2024</t>
-  </si>
-  <si>
-    <t>November 2024</t>
-  </si>
-  <si>
-    <t>December 2024</t>
+    <t>February 2023</t>
+  </si>
+  <si>
+    <t>March 2023</t>
+  </si>
+  <si>
+    <t>April 2023</t>
+  </si>
+  <si>
+    <t>May 2023</t>
+  </si>
+  <si>
+    <t>June 2023</t>
+  </si>
+  <si>
+    <t>July 2023</t>
+  </si>
+  <si>
+    <t>August 2023</t>
+  </si>
+  <si>
+    <t>September 2023</t>
+  </si>
+  <si>
+    <t>October 2023</t>
+  </si>
+  <si>
+    <t>November 2023</t>
+  </si>
+  <si>
+    <t>December 2023</t>
   </si>
 </sst>
 </file>
@@ -474,16 +474,37 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>23946.79</v>
+        <v>14888.52</v>
       </c>
       <c r="C2">
-        <v>38000.25</v>
+        <v>27379.32</v>
       </c>
       <c r="D2">
-        <v>29777.47</v>
+        <v>20299.34</v>
       </c>
       <c r="E2">
-        <v>252.55</v>
+        <v>24819.5</v>
+      </c>
+      <c r="F2">
+        <v>18894.48</v>
+      </c>
+      <c r="G2">
+        <v>17005.28</v>
+      </c>
+      <c r="H2">
+        <v>23443.38</v>
+      </c>
+      <c r="I2">
+        <v>14601.94</v>
+      </c>
+      <c r="J2">
+        <v>19625.17</v>
+      </c>
+      <c r="K2">
+        <v>12895.24</v>
+      </c>
+      <c r="L2">
+        <v>21685.31</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -491,16 +512,37 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14247.06</v>
+        <v>17784.62</v>
       </c>
       <c r="C3">
-        <v>24577.94</v>
+        <v>26486.53</v>
       </c>
       <c r="D3">
-        <v>14503.15</v>
+        <v>16581.79</v>
       </c>
       <c r="E3">
-        <v>112.6</v>
+        <v>20093.13</v>
+      </c>
+      <c r="F3">
+        <v>8094.83</v>
+      </c>
+      <c r="G3">
+        <v>12039.55</v>
+      </c>
+      <c r="H3">
+        <v>12567.48</v>
+      </c>
+      <c r="I3">
+        <v>10108.42</v>
+      </c>
+      <c r="J3">
+        <v>15225.9</v>
+      </c>
+      <c r="K3">
+        <v>13628.38</v>
+      </c>
+      <c r="L3">
+        <v>10805.9</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -508,16 +550,37 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>13158.1</v>
+        <v>10281.97</v>
       </c>
       <c r="C4">
-        <v>13837.31</v>
+        <v>23566.01</v>
       </c>
       <c r="D4">
-        <v>15091.78</v>
+        <v>11406.17</v>
       </c>
       <c r="E4">
-        <v>71.4</v>
+        <v>15615.67</v>
+      </c>
+      <c r="F4">
+        <v>18032.0</v>
+      </c>
+      <c r="G4">
+        <v>18197.54</v>
+      </c>
+      <c r="H4">
+        <v>15005.81</v>
+      </c>
+      <c r="I4">
+        <v>9754.63</v>
+      </c>
+      <c r="J4">
+        <v>14183.76</v>
+      </c>
+      <c r="K4">
+        <v>11373.27</v>
+      </c>
+      <c r="L4">
+        <v>7228.7</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -525,16 +588,37 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>14057.65</v>
+        <v>15483.38</v>
       </c>
       <c r="C5">
-        <v>21966.88</v>
+        <v>26759.96</v>
       </c>
       <c r="D5">
-        <v>18512.01</v>
+        <v>17852.75</v>
       </c>
       <c r="E5">
-        <v>77.52</v>
+        <v>22028.09</v>
+      </c>
+      <c r="F5">
+        <v>18154.85</v>
+      </c>
+      <c r="G5">
+        <v>18936.99</v>
+      </c>
+      <c r="H5">
+        <v>16399.25</v>
+      </c>
+      <c r="I5">
+        <v>15049.73</v>
+      </c>
+      <c r="J5">
+        <v>19370.68</v>
+      </c>
+      <c r="K5">
+        <v>14895.0</v>
+      </c>
+      <c r="L5">
+        <v>12901.95</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -542,16 +626,37 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10130.05</v>
+        <v>7110.97</v>
       </c>
       <c r="C6">
-        <v>13869.15</v>
+        <v>13190.21</v>
       </c>
       <c r="D6">
-        <v>12724.67</v>
+        <v>3473.74</v>
       </c>
       <c r="E6">
-        <v>179.52</v>
+        <v>11728.51</v>
+      </c>
+      <c r="F6">
+        <v>11386.77</v>
+      </c>
+      <c r="G6">
+        <v>11848.99</v>
+      </c>
+      <c r="H6">
+        <v>10730.01</v>
+      </c>
+      <c r="I6">
+        <v>9848.51</v>
+      </c>
+      <c r="J6">
+        <v>12250.91</v>
+      </c>
+      <c r="K6">
+        <v>10428.3</v>
+      </c>
+      <c r="L6">
+        <v>8272.31</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -559,13 +664,37 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>9575.21</v>
+        <v>10747.36</v>
       </c>
       <c r="C7">
-        <v>15078.69</v>
+        <v>16978.55</v>
       </c>
       <c r="D7">
-        <v>14467.49</v>
+        <v>11228.34</v>
+      </c>
+      <c r="E7">
+        <v>14855.39</v>
+      </c>
+      <c r="F7">
+        <v>12170.18</v>
+      </c>
+      <c r="G7">
+        <v>12503.96</v>
+      </c>
+      <c r="H7">
+        <v>8293.18</v>
+      </c>
+      <c r="I7">
+        <v>10439.91</v>
+      </c>
+      <c r="J7">
+        <v>11610.79</v>
+      </c>
+      <c r="K7">
+        <v>10844.91</v>
+      </c>
+      <c r="L7">
+        <v>8955.84</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -573,60 +702,57 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>11771.54</v>
+        <v>11790.98</v>
       </c>
       <c r="C8">
-        <v>12832.38</v>
+        <v>17335.67</v>
       </c>
       <c r="D8">
-        <v>13581.91</v>
+        <v>9610.25</v>
+      </c>
+      <c r="E8">
+        <v>7288.09</v>
+      </c>
+      <c r="F8">
+        <v>14696.73</v>
+      </c>
+      <c r="G8">
+        <v>14390.56</v>
+      </c>
+      <c r="H8">
+        <v>14665.29</v>
+      </c>
+      <c r="I8">
+        <v>12058.61</v>
+      </c>
+      <c r="J8">
+        <v>14421.22</v>
+      </c>
+      <c r="K8">
+        <v>13035.09</v>
+      </c>
+      <c r="L8">
+        <v>10075.15</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1561.22</v>
-      </c>
-      <c r="C9">
-        <v>110.76</v>
-      </c>
-      <c r="D9">
-        <v>14076.96</v>
-      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>1272.09</v>
-      </c>
-      <c r="C10">
-        <v>44.88</v>
-      </c>
-      <c r="D10">
-        <v>12767.23</v>
-      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>423.02</v>
-      </c>
-      <c r="C11">
-        <v>11767.22</v>
-      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>11</v>
-      </c>
-      <c r="C12">
-        <v>4006.43</v>
       </c>
     </row>
   </sheetData>

--- a/public/tmp/pivottotalwork.xlsx
+++ b/public/tmp/pivottotalwork.xlsx
@@ -53,37 +53,37 @@
     <t>พรชัย</t>
   </si>
   <si>
-    <t>February 2023</t>
-  </si>
-  <si>
-    <t>March 2023</t>
-  </si>
-  <si>
-    <t>April 2023</t>
-  </si>
-  <si>
-    <t>May 2023</t>
-  </si>
-  <si>
-    <t>June 2023</t>
-  </si>
-  <si>
-    <t>July 2023</t>
-  </si>
-  <si>
-    <t>August 2023</t>
-  </si>
-  <si>
-    <t>September 2023</t>
-  </si>
-  <si>
-    <t>October 2023</t>
-  </si>
-  <si>
-    <t>November 2023</t>
-  </si>
-  <si>
-    <t>December 2023</t>
+    <t>February 2024</t>
+  </si>
+  <si>
+    <t>March 2024</t>
+  </si>
+  <si>
+    <t>April 2024</t>
+  </si>
+  <si>
+    <t>May 2024</t>
+  </si>
+  <si>
+    <t>June 2024</t>
+  </si>
+  <si>
+    <t>July 2024</t>
+  </si>
+  <si>
+    <t>August 2024</t>
+  </si>
+  <si>
+    <t>September 2024</t>
+  </si>
+  <si>
+    <t>October 2024</t>
+  </si>
+  <si>
+    <t>November 2024</t>
+  </si>
+  <si>
+    <t>December 2024</t>
   </si>
 </sst>
 </file>
@@ -474,37 +474,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14888.52</v>
+        <v>23946.79</v>
       </c>
       <c r="C2">
-        <v>27379.32</v>
+        <v>38000.25</v>
       </c>
       <c r="D2">
-        <v>20299.34</v>
+        <v>29777.47</v>
       </c>
       <c r="E2">
-        <v>24819.5</v>
+        <v>23998.18</v>
       </c>
       <c r="F2">
-        <v>18894.48</v>
-      </c>
-      <c r="G2">
-        <v>17005.28</v>
-      </c>
-      <c r="H2">
-        <v>23443.38</v>
-      </c>
-      <c r="I2">
-        <v>14601.94</v>
-      </c>
-      <c r="J2">
-        <v>19625.17</v>
-      </c>
-      <c r="K2">
-        <v>12895.24</v>
-      </c>
-      <c r="L2">
-        <v>21685.31</v>
+        <v>1141.7</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -512,37 +494,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>17784.62</v>
+        <v>14247.06</v>
       </c>
       <c r="C3">
-        <v>26486.53</v>
+        <v>24577.94</v>
       </c>
       <c r="D3">
-        <v>16581.79</v>
+        <v>14503.15</v>
       </c>
       <c r="E3">
-        <v>20093.13</v>
+        <v>18888.71</v>
       </c>
       <c r="F3">
-        <v>8094.83</v>
-      </c>
-      <c r="G3">
-        <v>12039.55</v>
-      </c>
-      <c r="H3">
-        <v>12567.48</v>
-      </c>
-      <c r="I3">
-        <v>10108.42</v>
-      </c>
-      <c r="J3">
-        <v>15225.9</v>
-      </c>
-      <c r="K3">
-        <v>13628.38</v>
-      </c>
-      <c r="L3">
-        <v>10805.9</v>
+        <v>415.03</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -550,37 +514,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10281.97</v>
+        <v>13158.1</v>
       </c>
       <c r="C4">
-        <v>23566.01</v>
+        <v>13837.31</v>
       </c>
       <c r="D4">
-        <v>11406.17</v>
+        <v>15091.78</v>
       </c>
       <c r="E4">
-        <v>15615.67</v>
+        <v>14634.84</v>
       </c>
       <c r="F4">
-        <v>18032.0</v>
-      </c>
-      <c r="G4">
-        <v>18197.54</v>
-      </c>
-      <c r="H4">
-        <v>15005.81</v>
-      </c>
-      <c r="I4">
-        <v>9754.63</v>
-      </c>
-      <c r="J4">
-        <v>14183.76</v>
-      </c>
-      <c r="K4">
-        <v>11373.27</v>
-      </c>
-      <c r="L4">
-        <v>7228.7</v>
+        <v>584.43</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -588,37 +534,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>15483.38</v>
+        <v>14057.65</v>
       </c>
       <c r="C5">
-        <v>26759.96</v>
+        <v>21966.88</v>
       </c>
       <c r="D5">
-        <v>17852.75</v>
+        <v>18512.01</v>
       </c>
       <c r="E5">
-        <v>22028.09</v>
+        <v>18688.09</v>
       </c>
       <c r="F5">
-        <v>18154.85</v>
-      </c>
-      <c r="G5">
-        <v>18936.99</v>
-      </c>
-      <c r="H5">
-        <v>16399.25</v>
-      </c>
-      <c r="I5">
-        <v>15049.73</v>
-      </c>
-      <c r="J5">
-        <v>19370.68</v>
-      </c>
-      <c r="K5">
-        <v>14895.0</v>
-      </c>
-      <c r="L5">
-        <v>12901.95</v>
+        <v>279.65</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -626,37 +554,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7110.97</v>
+        <v>10130.05</v>
       </c>
       <c r="C6">
-        <v>13190.21</v>
+        <v>13869.15</v>
       </c>
       <c r="D6">
-        <v>3473.74</v>
+        <v>12724.67</v>
       </c>
       <c r="E6">
-        <v>11728.51</v>
+        <v>13208.6</v>
       </c>
       <c r="F6">
-        <v>11386.77</v>
-      </c>
-      <c r="G6">
-        <v>11848.99</v>
-      </c>
-      <c r="H6">
-        <v>10730.01</v>
-      </c>
-      <c r="I6">
-        <v>9848.51</v>
-      </c>
-      <c r="J6">
-        <v>12250.91</v>
-      </c>
-      <c r="K6">
-        <v>10428.3</v>
-      </c>
-      <c r="L6">
-        <v>8272.31</v>
+        <v>583.41</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -664,37 +574,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10747.36</v>
+        <v>9575.21</v>
       </c>
       <c r="C7">
-        <v>16978.55</v>
+        <v>15078.69</v>
       </c>
       <c r="D7">
-        <v>11228.34</v>
+        <v>14467.49</v>
       </c>
       <c r="E7">
-        <v>14855.39</v>
+        <v>14327.45</v>
       </c>
       <c r="F7">
-        <v>12170.18</v>
-      </c>
-      <c r="G7">
-        <v>12503.96</v>
-      </c>
-      <c r="H7">
-        <v>8293.18</v>
-      </c>
-      <c r="I7">
-        <v>10439.91</v>
-      </c>
-      <c r="J7">
-        <v>11610.79</v>
-      </c>
-      <c r="K7">
-        <v>10844.91</v>
-      </c>
-      <c r="L7">
-        <v>8955.84</v>
+        <v>24.18</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -702,57 +594,75 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>11790.98</v>
+        <v>11771.54</v>
       </c>
       <c r="C8">
-        <v>17335.67</v>
+        <v>12832.38</v>
       </c>
       <c r="D8">
-        <v>9610.25</v>
+        <v>13581.91</v>
       </c>
       <c r="E8">
-        <v>7288.09</v>
+        <v>15727.19</v>
       </c>
       <c r="F8">
-        <v>14696.73</v>
-      </c>
-      <c r="G8">
-        <v>14390.56</v>
-      </c>
-      <c r="H8">
-        <v>14665.29</v>
-      </c>
-      <c r="I8">
-        <v>12058.61</v>
-      </c>
-      <c r="J8">
-        <v>14421.22</v>
-      </c>
-      <c r="K8">
-        <v>13035.09</v>
-      </c>
-      <c r="L8">
-        <v>10075.15</v>
+        <v>993.96</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>1561.22</v>
+      </c>
+      <c r="C9">
+        <v>110.76</v>
+      </c>
+      <c r="D9">
+        <v>14076.96</v>
+      </c>
+      <c r="E9">
+        <v>12991.13</v>
+      </c>
+      <c r="F9">
+        <v>536.87</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>1272.09</v>
+      </c>
+      <c r="C10">
+        <v>44.88</v>
+      </c>
+      <c r="D10">
+        <v>12767.23</v>
+      </c>
+      <c r="E10">
+        <v>15216.28</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>423.02</v>
+      </c>
+      <c r="C11">
+        <v>11767.22</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>11</v>
+      </c>
+      <c r="C12">
+        <v>4006.43</v>
       </c>
     </row>
   </sheetData>

--- a/public/tmp/pivottotalwork.xlsx
+++ b/public/tmp/pivottotalwork.xlsx
@@ -486,7 +486,7 @@
         <v>23998.18</v>
       </c>
       <c r="F2">
-        <v>1141.7</v>
+        <v>1400.06</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -506,7 +506,7 @@
         <v>18888.71</v>
       </c>
       <c r="F3">
-        <v>415.03</v>
+        <v>560.36</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -526,7 +526,7 @@
         <v>14634.84</v>
       </c>
       <c r="F4">
-        <v>584.43</v>
+        <v>173.54</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -546,7 +546,7 @@
         <v>18688.09</v>
       </c>
       <c r="F5">
-        <v>279.65</v>
+        <v>716.69</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -566,7 +566,7 @@
         <v>13208.6</v>
       </c>
       <c r="F6">
-        <v>583.41</v>
+        <v>402.9</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -586,7 +586,7 @@
         <v>14327.45</v>
       </c>
       <c r="F7">
-        <v>24.18</v>
+        <v>689.01</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -606,7 +606,7 @@
         <v>15727.19</v>
       </c>
       <c r="F8">
-        <v>993.96</v>
+        <v>199.32</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -626,7 +626,7 @@
         <v>12991.13</v>
       </c>
       <c r="F9">
-        <v>536.87</v>
+        <v>993.96</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -644,6 +644,9 @@
       </c>
       <c r="E10">
         <v>15216.28</v>
+      </c>
+      <c r="F10">
+        <v>1141.36</v>
       </c>
     </row>
     <row r="11" spans="1:12">

--- a/public/tmp/pivottotalwork.xlsx
+++ b/public/tmp/pivottotalwork.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>ชื่อช่าง</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>พรชัย</t>
+  </si>
+  <si>
+    <t>January 2024</t>
   </si>
   <si>
     <t>February 2024</t>
@@ -91,7 +94,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -101,13 +104,25 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
@@ -122,8 +137,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,37 +441,37 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I1" t="s">
@@ -468,203 +486,233 @@
       <c r="L1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>17124.7</v>
+      </c>
+      <c r="C2">
         <v>23946.79</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>38000.25</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>29777.47</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>23998.18</v>
       </c>
-      <c r="F2">
-        <v>1400.06</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="G2">
+        <v>20507.19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>10027.52</v>
+      </c>
+      <c r="C3">
         <v>14247.06</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>24577.94</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>14503.15</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>18888.71</v>
       </c>
-      <c r="F3">
-        <v>560.36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="G3">
+        <v>10705.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>9923.77</v>
+      </c>
+      <c r="C4">
         <v>13158.1</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>13837.31</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>15091.78</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>14634.84</v>
       </c>
-      <c r="F4">
-        <v>173.54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="G4">
+        <v>16708.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>11603.46</v>
+      </c>
+      <c r="C5">
         <v>14057.65</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>21966.88</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>18512.01</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>18688.09</v>
       </c>
-      <c r="F5">
-        <v>716.69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="G5">
+        <v>19559.39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>7861.49</v>
+      </c>
+      <c r="C6">
         <v>10130.05</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>13869.15</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>12724.67</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>13208.6</v>
       </c>
-      <c r="F6">
-        <v>402.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="G6">
+        <v>11902.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>7302.78</v>
+      </c>
+      <c r="C7">
         <v>9575.21</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>15078.69</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>14467.49</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>14327.45</v>
       </c>
-      <c r="F7">
-        <v>689.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="G7">
+        <v>10801.37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>9559.85</v>
+      </c>
+      <c r="C8">
         <v>11771.54</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>12832.38</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>13581.91</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>15727.19</v>
       </c>
-      <c r="F8">
-        <v>199.32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="G8">
+        <v>15591.28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>396.62</v>
+      </c>
+      <c r="C9">
         <v>1561.22</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>110.76</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>14076.96</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>12991.13</v>
       </c>
-      <c r="F9">
-        <v>993.96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="G9">
+        <v>13370.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>618.95</v>
+      </c>
+      <c r="C10">
         <v>1272.09</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>44.88</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>12767.23</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>15216.28</v>
       </c>
-      <c r="F10">
-        <v>1141.36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="G10">
+        <v>13310.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>423.02</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>11767.22</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>4006.43</v>
       </c>
     </row>

--- a/public/tmp/pivottotalwork.xlsx
+++ b/public/tmp/pivottotalwork.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>ชื่อช่าง</t>
   </si>
@@ -39,12 +39,6 @@
   </si>
   <si>
     <t>ไกรสร</t>
-  </si>
-  <si>
-    <t>เกษม</t>
-  </si>
-  <si>
-    <t>นฤเบศร์</t>
   </si>
   <si>
     <t>บุญฤทธิ์</t>
@@ -441,7 +435,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:H1"/>
@@ -454,40 +448,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -512,6 +506,9 @@
       <c r="G2">
         <v>20507.19</v>
       </c>
+      <c r="H2">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -535,6 +532,9 @@
       <c r="G3">
         <v>10705.13</v>
       </c>
+      <c r="H3">
+        <v>48.35</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
@@ -602,7 +602,7 @@
         <v>13208.6</v>
       </c>
       <c r="G6">
-        <v>11902.15</v>
+        <v>11870.65</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -655,14 +655,11 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>396.62</v>
-      </c>
       <c r="C9">
-        <v>1561.22</v>
+        <v>423.02</v>
       </c>
       <c r="D9">
-        <v>110.76</v>
+        <v>11767.22</v>
       </c>
       <c r="E9">
         <v>14076.96</v>
@@ -678,14 +675,8 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>618.95</v>
-      </c>
-      <c r="C10">
-        <v>1272.09</v>
-      </c>
       <c r="D10">
-        <v>44.88</v>
+        <v>4006.43</v>
       </c>
       <c r="E10">
         <v>12767.23</v>
@@ -695,25 +686,6 @@
       </c>
       <c r="G10">
         <v>13310.78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>423.02</v>
-      </c>
-      <c r="D11">
-        <v>11767.22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>4006.43</v>
       </c>
     </row>
   </sheetData>

--- a/public/tmp/pivottotalwork.xlsx
+++ b/public/tmp/pivottotalwork.xlsx
@@ -47,40 +47,40 @@
     <t>พรชัย</t>
   </si>
   <si>
-    <t>January 2024</t>
-  </si>
-  <si>
-    <t>February 2024</t>
-  </si>
-  <si>
-    <t>March 2024</t>
-  </si>
-  <si>
-    <t>April 2024</t>
-  </si>
-  <si>
-    <t>May 2024</t>
-  </si>
-  <si>
-    <t>June 2024</t>
-  </si>
-  <si>
-    <t>July 2024</t>
-  </si>
-  <si>
-    <t>August 2024</t>
-  </si>
-  <si>
-    <t>September 2024</t>
-  </si>
-  <si>
-    <t>October 2024</t>
-  </si>
-  <si>
-    <t>November 2024</t>
-  </si>
-  <si>
-    <t>December 2024</t>
+    <t>January 2025</t>
+  </si>
+  <si>
+    <t>February 2025</t>
+  </si>
+  <si>
+    <t>March 2025</t>
+  </si>
+  <si>
+    <t>April 2025</t>
+  </si>
+  <si>
+    <t>May 2025</t>
+  </si>
+  <si>
+    <t>June 2025</t>
+  </si>
+  <si>
+    <t>July 2025</t>
+  </si>
+  <si>
+    <t>August 2025</t>
+  </si>
+  <si>
+    <t>September 2025</t>
+  </si>
+  <si>
+    <t>October 2025</t>
+  </si>
+  <si>
+    <t>November 2025</t>
+  </si>
+  <si>
+    <t>December 2025</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H1"/>
+      <selection activeCell="A1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -468,13 +468,13 @@
       <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L1" t="s">
@@ -489,25 +489,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17124.7</v>
-      </c>
-      <c r="C2">
-        <v>23946.79</v>
-      </c>
-      <c r="D2">
-        <v>38000.25</v>
-      </c>
-      <c r="E2">
-        <v>29777.47</v>
-      </c>
-      <c r="F2">
-        <v>23998.18</v>
-      </c>
-      <c r="G2">
-        <v>20507.19</v>
-      </c>
-      <c r="H2">
-        <v>13.0</v>
+        <v>1640.02</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -515,25 +497,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10027.52</v>
-      </c>
-      <c r="C3">
-        <v>14247.06</v>
-      </c>
-      <c r="D3">
-        <v>24577.94</v>
-      </c>
-      <c r="E3">
-        <v>14503.15</v>
-      </c>
-      <c r="F3">
-        <v>18888.71</v>
-      </c>
-      <c r="G3">
-        <v>10705.13</v>
-      </c>
-      <c r="H3">
-        <v>48.35</v>
+        <v>417.67</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -541,22 +505,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9923.77</v>
-      </c>
-      <c r="C4">
-        <v>13158.1</v>
-      </c>
-      <c r="D4">
-        <v>13837.31</v>
-      </c>
-      <c r="E4">
-        <v>15091.78</v>
-      </c>
-      <c r="F4">
-        <v>14634.84</v>
-      </c>
-      <c r="G4">
-        <v>16708.23</v>
+        <v>2151.81</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -564,22 +513,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>11603.46</v>
-      </c>
-      <c r="C5">
-        <v>14057.65</v>
-      </c>
-      <c r="D5">
-        <v>21966.88</v>
-      </c>
-      <c r="E5">
-        <v>18512.01</v>
-      </c>
-      <c r="F5">
-        <v>18688.09</v>
-      </c>
-      <c r="G5">
-        <v>19559.39</v>
+        <v>1065.8</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -587,22 +521,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7861.49</v>
-      </c>
-      <c r="C6">
-        <v>10130.05</v>
-      </c>
-      <c r="D6">
-        <v>13869.15</v>
-      </c>
-      <c r="E6">
-        <v>12724.67</v>
-      </c>
-      <c r="F6">
-        <v>13208.6</v>
-      </c>
-      <c r="G6">
-        <v>11870.65</v>
+        <v>722.92</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -610,82 +529,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7302.78</v>
-      </c>
-      <c r="C7">
-        <v>9575.21</v>
-      </c>
-      <c r="D7">
-        <v>15078.69</v>
-      </c>
-      <c r="E7">
-        <v>14467.49</v>
-      </c>
-      <c r="F7">
-        <v>14327.45</v>
-      </c>
-      <c r="G7">
-        <v>10801.37</v>
+        <v>850.99</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>9559.85</v>
-      </c>
-      <c r="C8">
-        <v>11771.54</v>
-      </c>
-      <c r="D8">
-        <v>12832.38</v>
-      </c>
-      <c r="E8">
-        <v>13581.91</v>
-      </c>
-      <c r="F8">
-        <v>15727.19</v>
-      </c>
-      <c r="G8">
-        <v>15591.28</v>
-      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>423.02</v>
-      </c>
-      <c r="D9">
-        <v>11767.22</v>
-      </c>
-      <c r="E9">
-        <v>14076.96</v>
-      </c>
-      <c r="F9">
-        <v>12991.13</v>
-      </c>
-      <c r="G9">
-        <v>13370.08</v>
-      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="D10">
-        <v>4006.43</v>
-      </c>
-      <c r="E10">
-        <v>12767.23</v>
-      </c>
-      <c r="F10">
-        <v>15216.28</v>
-      </c>
-      <c r="G10">
-        <v>13310.78</v>
+      <c r="B10">
+        <v>1421.07</v>
       </c>
     </row>
   </sheetData>
